--- a/Results/Research question 1/Research question 1.xlsx
+++ b/Results/Research question 1/Research question 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SELAB\Desktop\SiHyeon\MicroDVI\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SELAB\Desktop\SiHyeon\MicroDVI\Results\Research question 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="368">
   <si>
     <t>Components</t>
   </si>
@@ -1161,6 +1161,10 @@
   <si>
     <t>w/ table&amp;view
 alpha=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,6 +1172,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1216,7 +1223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,32 +1239,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1533,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1569,16 +1558,16 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1586,16 +1575,16 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1603,16 +1592,16 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1620,16 +1609,16 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1637,13 +1626,14 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1651,13 +1641,14 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1665,13 +1656,14 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1679,13 +1671,14 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1693,13 +1686,14 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1707,16 +1701,16 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1724,16 +1718,16 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1741,16 +1735,16 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1758,16 +1752,16 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1775,16 +1769,16 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1792,16 +1786,16 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1809,16 +1803,16 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1826,16 +1820,16 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1843,16 +1837,16 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1860,16 +1854,16 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1877,16 +1871,16 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1894,13 +1888,14 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1908,13 +1903,14 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1922,13 +1918,14 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1936,13 +1933,14 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1950,16 +1948,16 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1967,16 +1965,16 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1984,16 +1982,16 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2001,16 +1999,16 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2018,16 +2016,16 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2035,16 +2033,16 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2052,16 +2050,16 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2069,16 +2067,16 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2086,16 +2084,16 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2103,16 +2101,16 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2120,13 +2118,14 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2134,13 +2133,14 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2148,13 +2148,14 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2162,13 +2163,14 @@
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2176,13 +2178,14 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2190,13 +2193,14 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2204,13 +2208,14 @@
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2218,13 +2223,14 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2232,16 +2238,16 @@
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="B44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2249,16 +2255,16 @@
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="B45" s="5">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2266,16 +2272,16 @@
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2283,16 +2289,16 @@
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="B47" s="5">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2300,16 +2306,16 @@
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="B48" s="5">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2317,16 +2323,16 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="B49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2334,13 +2340,14 @@
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="B50" s="5">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2348,13 +2355,14 @@
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="B51" s="5">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2362,16 +2370,16 @@
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="B52" s="5">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2</v>
+      </c>
+      <c r="E52" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2379,16 +2387,16 @@
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="B53" s="5">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2396,16 +2404,16 @@
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="1">
-        <v>3</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="B54" s="5">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3</v>
+      </c>
+      <c r="E54" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2413,16 +2421,16 @@
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="B55" s="5">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2430,16 +2438,16 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="1">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="B56" s="5">
+        <v>3</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3</v>
+      </c>
+      <c r="E56" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2447,16 +2455,16 @@
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="1">
-        <v>3</v>
-      </c>
-      <c r="C57" s="1">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="B57" s="5">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2464,16 +2472,16 @@
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="1">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="B58" s="5">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2481,13 +2489,14 @@
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="B59" s="5">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2495,16 +2504,16 @@
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="1">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="B60" s="5">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2512,16 +2521,16 @@
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="B61" s="5">
+        <v>3</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3</v>
+      </c>
+      <c r="E61" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2529,13 +2538,14 @@
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="B62" s="5">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2543,13 +2553,14 @@
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="B63" s="5">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2557,13 +2568,14 @@
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="1">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2571,13 +2583,14 @@
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="1">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1">
+      <c r="B65" s="5">
+        <v>3</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5">
+        <v>3</v>
+      </c>
+      <c r="E65" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2585,13 +2598,14 @@
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="1">
-        <v>3</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
+      <c r="B66" s="5">
+        <v>3</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2599,16 +2613,16 @@
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1">
-        <v>3</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="B67" s="5">
+        <v>3</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2616,13 +2630,14 @@
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="1">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="B68" s="5">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2630,13 +2645,14 @@
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="1">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1">
+      <c r="B69" s="5">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2644,13 +2660,14 @@
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1">
-        <v>3</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="B70" s="5">
+        <v>3</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2658,13 +2675,14 @@
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1">
-        <v>3</v>
-      </c>
-      <c r="E71" s="1">
+      <c r="B71" s="5">
+        <v>3</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5">
+        <v>3</v>
+      </c>
+      <c r="E71" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2672,16 +2690,16 @@
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1">
-        <v>3</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="B72" s="5">
+        <v>3</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2689,16 +2707,16 @@
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1">
-        <v>3</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="B73" s="5">
+        <v>3</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2706,13 +2724,14 @@
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1">
-        <v>3</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="B74" s="5">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2720,102 +2739,153 @@
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B86" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="array" ref="C86">(SUM(IF((C$2:C$74&lt;&gt;"") * ($B$2:$B$74 = C$2:C$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.48809523809523808</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="array" ref="D86">(SUM(IF((D$2:D$74&lt;&gt;"") * ($B$2:$B$74 = D$2:D$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="array" ref="E86">(SUM(IF((E$2:E$74&lt;&gt;"") * ($B$2:$B$74 = E$2:E$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3703,6 +3773,23 @@
         <v>87</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="array" ref="C61">(SUM(IF((C$2:C$54&lt;&gt;"") * ($B$2:$B$54 = C$2:C$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.40677966101694918</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="array" ref="D61">(SUM(IF((D$2:D$54&lt;&gt;"") * ($B$2:$B$54 = D$2:D$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="array" ref="E61">(SUM(IF((E$2:E$54&lt;&gt;"") * ($B$2:$B$54 = E$2:E$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3711,10 +3798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4342,6 +4429,23 @@
         <v>88</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="array" ref="C46">(SUM(IF((C$2:C$33&lt;&gt;"") * ($B$2:$B$33 = C$2:C$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.65909090909090906</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="array" ref="D46">(SUM(IF((D$2:D$33&lt;&gt;"") * ($B$2:$B$33 = D$2:D$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="array" ref="E46">(SUM(IF((E$2:E$33&lt;&gt;"") * ($B$2:$B$33 = E$2:E$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4350,10 +4454,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4979,6 +5083,23 @@
         <v>87</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="array" ref="C41">(SUM(IF((C$2:C$38&lt;&gt;"") * ($B$2:$B$38 = C$2:C$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="array" ref="D41">(SUM(IF((D$2:D$38&lt;&gt;"") * ($B$2:$B$38 = D$2:D$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="array" ref="E41">(SUM(IF((E$2:E$38&lt;&gt;"") * ($B$2:$B$38 = E$2:E$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4987,10 +5108,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7548,7 +7669,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>333</v>
       </c>
@@ -7559,7 +7680,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>334</v>
       </c>
@@ -7570,7 +7691,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>335</v>
       </c>
@@ -7581,7 +7702,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>336</v>
       </c>
@@ -7592,7 +7713,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>337</v>
       </c>
@@ -7603,7 +7724,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>338</v>
       </c>
@@ -7614,7 +7735,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>339</v>
       </c>
@@ -7625,7 +7746,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>340</v>
       </c>
@@ -7636,7 +7757,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>341</v>
       </c>
@@ -7647,7 +7768,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>342</v>
       </c>
@@ -7658,7 +7779,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>343</v>
       </c>
@@ -7669,7 +7790,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>344</v>
       </c>
@@ -7680,7 +7801,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -7689,6 +7810,23 @@
       </c>
       <c r="C173" s="1" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B174" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="array" ref="C174">(SUM(IF((C$2:C$131&lt;&gt;"") * ($B$2:$B$131 = C$2:C$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.65697674418604646</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="array" ref="D174">(SUM(IF((D$2:D$131&lt;&gt;"") * ($B$2:$B$131 = D$2:D$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.73255813953488369</v>
+      </c>
+      <c r="E174" s="1">
+        <f t="array" ref="E174">(SUM(IF((E$2:E$131&lt;&gt;"") * ($B$2:$B$131 = E$2:E$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.76162790697674421</v>
       </c>
     </row>
   </sheetData>
